--- a/ДЗ_6.2.xlsx
+++ b/ДЗ_6.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QATester\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\QAtester_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1C80D4-52EB-4713-ACC8-A506ED432E6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A0FBEA-E9F8-4676-B239-1AAFDDC0CF23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="1050" windowWidth="22875" windowHeight="13395" tabRatio="682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
   <si>
     <t>passed</t>
   </si>
@@ -358,9 +358,6 @@
   </si>
   <si>
     <t>Поиск новостей</t>
-  </si>
-  <si>
-    <t>06-apr-2020</t>
   </si>
   <si>
     <t>Зайти на страницу своего профиля в VK;
@@ -477,6 +474,9 @@
   </si>
   <si>
     <t>Отобразился список результатов поиска по введенному запросу в разделе "Помощь"</t>
+  </si>
+  <si>
+    <t>09-apr-2020</t>
   </si>
 </sst>
 </file>
@@ -918,6 +918,21 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -932,21 +947,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1348,7 +1348,7 @@
       <pane xSplit="11" ySplit="7" topLeftCell="L34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1437,7 +1437,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$42,"passed")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="19" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M4" s="11"/>
       <c r="O4" s="11"/>
@@ -1566,43 +1566,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="50" t="s">
+      <c r="F6" s="50"/>
+      <c r="G6" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="53"/>
+      <c r="J6" s="46"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="52" t="s">
+      <c r="L6" s="45" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="52" t="s">
+      <c r="N6" s="45" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="52"/>
+      <c r="P6" s="45"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="52"/>
+      <c r="R6" s="45"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="52"/>
+      <c r="T6" s="45"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1612,29 +1612,29 @@
     </row>
     <row r="7" spans="1:124" ht="126.95" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="54"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="52"/>
+      <c r="L7" s="45"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="52"/>
+      <c r="N7" s="45"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="52"/>
+      <c r="P7" s="45"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="52"/>
+      <c r="R7" s="45"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="52"/>
+      <c r="T7" s="45"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -2475,10 +2475,10 @@
         <v>82</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="20"/>
@@ -2508,13 +2508,13 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="20"/>
@@ -2544,13 +2544,13 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="20"/>
@@ -2580,13 +2580,13 @@
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="20"/>
@@ -2616,13 +2616,13 @@
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="20"/>
@@ -2652,13 +2652,13 @@
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="20"/>
@@ -2688,20 +2688,22 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="F34" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="20"/>
       <c r="I34" s="21"/>
       <c r="J34" s="20"/>
       <c r="K34" s="10"/>
-      <c r="L34" s="6"/>
+      <c r="L34" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M34" s="11"/>
       <c r="N34" s="6"/>
       <c r="O34" s="11"/>
@@ -2724,20 +2726,22 @@
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="20"/>
       <c r="I35" s="21"/>
       <c r="J35" s="20"/>
       <c r="K35" s="10"/>
-      <c r="L35" s="6"/>
+      <c r="L35" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M35" s="11"/>
       <c r="N35" s="6"/>
       <c r="O35" s="11"/>
@@ -2760,20 +2764,22 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="20"/>
       <c r="I36" s="21"/>
       <c r="J36" s="20"/>
       <c r="K36" s="10"/>
-      <c r="L36" s="6"/>
+      <c r="L36" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M36" s="11"/>
       <c r="N36" s="6"/>
       <c r="O36" s="11"/>
@@ -3428,6 +3434,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3435,12 +3447,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L42 R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N42" xr:uid="{00000000-0002-0000-0100-000000000000}">
